--- a/设计.xlsx
+++ b/设计.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B440F9F5-04B5-4B8C-A32A-E1072D233D90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BEBAB3-58A7-43AA-969D-9B9ECDAFD272}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令集" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="155">
   <si>
     <t>指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -562,10 +562,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0：存储器；1：ALU结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -634,10 +630,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00：不跳转；01：BEQ/BNE；10：J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -651,6 +643,18 @@
   </si>
   <si>
     <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：ALU结果；1：存储器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00：不跳转；01：BEQ；10：BNE；11：J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1043,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1637,7 +1641,7 @@
         <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1766,7 +1770,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>59</v>
@@ -1899,17 +1903,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
     <mergeCell ref="D23:H23"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1925,14 +1929,14 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.88671875" customWidth="1"/>
     <col min="3" max="3" width="47.88671875" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="4" max="4" width="39.88671875" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1958,10 +1962,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2045,21 +2049,21 @@
         <v>130</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>133</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>134</v>
-      </c>
-      <c r="D9" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2073,8 +2077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3AF9C0-7796-43A4-80F6-7D6F5EB6FB4F}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -2112,7 +2116,7 @@
         <v>129</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2120,7 +2124,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -2132,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -2141,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2149,7 +2153,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -2161,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -2170,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2178,7 +2182,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -2190,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -2199,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2207,7 +2211,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -2219,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -2228,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2236,7 +2240,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -2248,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -2257,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2265,7 +2269,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -2277,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -2286,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2294,7 +2298,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -2306,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -2315,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2323,7 +2327,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -2335,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -2344,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2352,7 +2356,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -2364,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -2373,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2381,7 +2385,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -2393,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -2402,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2410,7 +2414,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -2422,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -2439,7 +2443,7 @@
         <v>63</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -2451,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -2468,7 +2472,7 @@
         <v>67</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -2480,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -2497,7 +2501,7 @@
         <v>71</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -2509,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -2526,7 +2530,7 @@
         <v>74</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -2538,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
@@ -2555,7 +2559,7 @@
         <v>77</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -2567,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -2576,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2584,7 +2588,7 @@
         <v>47</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -2596,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -2613,10 +2617,10 @@
         <v>49</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
@@ -2625,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
@@ -2642,10 +2646,10 @@
         <v>53</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -2654,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -2671,10 +2675,10 @@
         <v>57</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2683,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -2700,19 +2704,19 @@
         <v>59</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -2721,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
